--- a/outputs-r202/f__UBA660.xlsx
+++ b/outputs-r202/f__UBA660.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ12"/>
+  <dimension ref="A1:CK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,6 +875,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1145,6 +1150,11 @@
           <t>g__CAG-822</t>
         </is>
       </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>g__CAG-822</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1415,6 +1425,11 @@
           <t>g__UBA2730</t>
         </is>
       </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>g__UBA2730</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1685,6 +1700,11 @@
           <t>g__RUG591</t>
         </is>
       </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>g__RUG591</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1955,6 +1975,11 @@
           <t>g__UBA2730</t>
         </is>
       </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>g__UBA2730</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2225,6 +2250,11 @@
           <t>g__RUG705</t>
         </is>
       </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>g__RUG705</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2495,6 +2525,11 @@
           <t>g__RUG727</t>
         </is>
       </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>g__RUG727</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2765,6 +2800,11 @@
           <t>g__UBA2730</t>
         </is>
       </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>g__UBA2730</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3035,6 +3075,11 @@
           <t>g__UBA3789</t>
         </is>
       </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>g__UBA3789(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3305,6 +3350,11 @@
           <t>g__UBA5026</t>
         </is>
       </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>g__UBA5026(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3575,6 +3625,11 @@
           <t>g__CAG-1000</t>
         </is>
       </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>g__CAG-1000</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3841,6 +3896,11 @@
         <v>0.9179518487729611</v>
       </c>
       <c r="CJ12" t="inlineStr">
+        <is>
+          <t>g__UBA3789</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
         <is>
           <t>g__UBA3789</t>
         </is>

--- a/outputs-r202/f__UBA660.xlsx
+++ b/outputs-r202/f__UBA660.xlsx
@@ -884,1375 +884,1375 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG357.fasta</t>
+          <t>RUG343.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>8.923918975323805e-07</v>
+        <v>0.001328028498713111</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>5.808937534974843e-05</v>
+        <v>1.611077701005238e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.273714622030608e-08</v>
+        <v>6.814566812536476e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006304581737446585</v>
+        <v>7.57625050876991e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9971086574794894</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>6.517455687558976e-05</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>1.314966850873254e-09</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.731141598219268e-05</v>
+        <v>0.9957965629305509</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0003791672471961196</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.953795035841205e-12</v>
+        <v>5.211637649596855e-09</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.001680226618699297</v>
+        <v>0.002875326277624085</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BR2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CB2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CD2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CE2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CH2" t="n">
-        <v>2.220371171871728e-14</v>
+        <v>2.220337625713782e-14</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.9971086574794894</v>
+        <v>0.9957965629305509</v>
       </c>
       <c r="CJ2" t="inlineStr">
         <is>
-          <t>g__CAG-822</t>
+          <t>g__RUG343</t>
         </is>
       </c>
       <c r="CK2" t="inlineStr">
         <is>
-          <t>g__CAG-822</t>
+          <t>g__RUG343</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG530.fasta</t>
+          <t>RUG357.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>7.033365592375243e-05</v>
+        <v>8.923918975323805e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02721009042918028</v>
+        <v>5.808937534974843e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>5.958631376653229e-08</v>
+        <v>2.273714622030608e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>6.907116991963402e-07</v>
+        <v>0.0006304581737446585</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>0.9971086574794894</v>
       </c>
       <c r="S3" t="n">
-        <v>2.844647564049399e-13</v>
+        <v>6.517455687558976e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>8.899184979112581e-09</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BF3" t="n">
-        <v>9.036805256080314e-09</v>
+        <v>7.731141598219268e-05</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BK3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.9727186384435041</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.454418212155562e-08</v>
+        <v>0.0003791672471961196</v>
       </c>
       <c r="BO3" t="n">
-        <v>5.898435894881328e-08</v>
+        <v>1.953795035841205e-12</v>
       </c>
       <c r="BP3" t="n">
-        <v>9.570692011867779e-08</v>
+        <v>0.001680226618699297</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BS3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BU3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BV3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BW3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CA3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CC3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CD3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CE3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CF3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CG3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.220222165860066e-14</v>
+        <v>2.220371171871728e-14</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.9727186384435041</v>
+        <v>0.9971086574794894</v>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>g__UBA2730</t>
+          <t>g__CAG-822</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>g__UBA2730</t>
+          <t>g__CAG-822</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG591.fasta</t>
+          <t>RUG530.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>5.923673643042099e-08</v>
+        <v>7.033365592375243e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>0.02721009042918028</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>5.431648156209026e-05</v>
+        <v>5.958631376653229e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.265957899209166e-06</v>
+        <v>6.907116991963402e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.844647564049399e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.322357724178172e-12</v>
+        <v>8.899184979112581e-09</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.47020734564711e-09</v>
+        <v>9.036805256080314e-09</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9910189005947369</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>0.9727186384435041</v>
       </c>
       <c r="BN4" t="n">
-        <v>7.251812684956829e-06</v>
+        <v>1.454418212155562e-08</v>
       </c>
       <c r="BO4" t="n">
-        <v>7.422985436725949e-10</v>
+        <v>5.898435894881328e-08</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.008918203699864779</v>
+        <v>9.570692011867779e-08</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CC4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CH4" t="n">
-        <v>2.220270905289168e-14</v>
+        <v>2.220222165860066e-14</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.9910189005947369</v>
+        <v>0.9727186384435041</v>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>g__RUG591</t>
+          <t>g__UBA2730</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>g__RUG591</t>
+          <t>g__UBA2730</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG594.fasta</t>
+          <t>RUG591.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002418065197580029</v>
+        <v>5.923673643042099e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02117271484375445</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>1.579785212334782e-09</v>
+        <v>5.431648156209026e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.07187083194838e-07</v>
+        <v>1.265957899209166e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>9.772439197788596e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.57265306093307e-08</v>
+        <v>2.322357724178172e-12</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.233173776158351e-07</v>
+        <v>1.47020734564711e-09</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>0.9910189005947369</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.9763815929463778</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BN5" t="n">
-        <v>7.508491421417322e-10</v>
+        <v>7.251812684956829e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.126188683132673e-05</v>
+        <v>7.422985436725949e-10</v>
       </c>
       <c r="BP5" t="n">
-        <v>5.706562090066049e-06</v>
+        <v>0.008918203699864779</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BT5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BU5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BW5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BX5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BY5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CA5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CB5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CC5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CD5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CE5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CG5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CH5" t="n">
-        <v>2.220259196566153e-14</v>
+        <v>2.220270905289168e-14</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.9763815929463778</v>
+        <v>0.9910189005947369</v>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>g__UBA2730</t>
+          <t>g__RUG591</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>g__UBA2730</t>
+          <t>g__RUG591</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG705.fasta</t>
+          <t>RUG594.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>8.152210505690777e-10</v>
+        <v>0.002418065197580029</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>1.289042573939697e-09</v>
+        <v>0.02117271484375445</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00849960854996496</v>
+        <v>1.579785212334782e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002695229370174989</v>
+        <v>1.07187083194838e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>9.209692556851375e-09</v>
+        <v>9.772439197788596e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.361447659217615e-09</v>
+        <v>2.57265306093307e-08</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BF6" t="n">
-        <v>9.042745558335928e-08</v>
+        <v>5.233173776158351e-07</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.9912129466793389</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BL6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>0.9763815929463778</v>
       </c>
       <c r="BN6" t="n">
-        <v>5.32442381241986e-07</v>
+        <v>7.508491421417322e-10</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.728598553463951e-05</v>
+        <v>2.126188683132673e-05</v>
       </c>
       <c r="BP6" t="n">
-        <v>3.012602249225855e-10</v>
+        <v>5.706562090066049e-06</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BS6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BU6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BW6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BY6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CA6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CB6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CG6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CH6" t="n">
-        <v>2.220273888306317e-14</v>
+        <v>2.220259196566153e-14</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.9912129466793389</v>
+        <v>0.9763815929463778</v>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>g__RUG705</t>
+          <t>g__UBA2730</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>g__RUG705</t>
+          <t>g__UBA2730</t>
         </is>
       </c>
     </row>
